--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_226.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_226.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08977272727272727</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.82, 46.24)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.74, 19.74)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:11.860000', '0:00:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.98, 15.9)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.8, 19.04)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:39.580000', '0:00:48.900000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3028846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:02.640000', '0:00:07.300000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4571428571428572</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.072680077871512</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(261.828, 273.028)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:21.440000', '0:00:24.060000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:06.370000', '0:00:08.660000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0452246898133667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6']]</t>
+          <t>[['A', 'D', 'D/7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(11.42, 20.84)]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.39, 20.08)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:10.560212', '0:00:12.866913')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.444363', '0:00:11.013666')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6363636363636364</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(63.22, 70.46)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(105.2, 112.4), (19.98, 28.9)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(98.06, 105.6), (134.22, 139.56)]</t>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.06481)]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:57.480000', '0:01:08.700000'), ('0:02:14.740000', '0:02:30.760000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_38</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07008592910848549</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min7', 'G:7', 'C:7']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(60.28, 67.56)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(115.728276, 124.366099)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1291208791208791</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.275034, 18.895804)]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.61044, 45.427039)]</t>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb', 'Eb'], ['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E'], ['E', 'E', 'A']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(131.54, 134.26), (136.07, 138.78)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.010793, 22.457415), (122.976598, 130.383764)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1183035714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.04, 11.44)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C/5', 'F/3', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(135.371234, 138.80365)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(123.652, 131.396)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1596638655462185</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(85.437167, 91.834264)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(111.87, 114.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
